--- a/xlsx/雅典_intext.xlsx
+++ b/xlsx/雅典_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="871">
   <si>
     <t>雅典</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>雅典 (消歧義)</t>
+    <t>雅典 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_政治_雅典</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>希臘地區</t>
+    <t>希腊地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>中希臘</t>
+    <t>中希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%A4%A7%E5%8C%BA</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%87%8C%E5%85%8B%E5%88%A9</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E6%95%B8</t>
   </si>
   <si>
-    <t>複數</t>
+    <t>复数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E4%BC%A6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>安那托利亞</t>
+    <t>安那托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%95%E5%8D%A1%E7%BB%B4%E5%A4%9A%E6%96%AF</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海氣候</t>
+    <t>地中海气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7</t>
   </si>
   <si>
-    <t>霧</t>
+    <t>雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>東阿提卡州</t>
+    <t>东阿提卡州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E9%9B%B7%E5%9F%83%E5%A4%AB%E6%96%AF%E5%B7%9E</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E5%9C%B0%E4%BA%9E</t>
   </si>
   <si>
-    <t>卡利地亞</t>
+    <t>卡利地亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%8C%A8</t>
@@ -635,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%B2%A8%E5%B9%A3%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>雅典貨幣博物館</t>
+    <t>雅典货币博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%92%8C%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>拜占庭和基督教博物館</t>
+    <t>拜占庭和基督教博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A4%A7%E5%AD%A6</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物學</t>
+    <t>植物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共汽車</t>
+    <t>公共汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>無軌電車</t>
+    <t>无轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%9C%B0%E9%93%81</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>鐵路列車</t>
+    <t>铁路列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%A0%B4</t>
   </si>
   <si>
-    <t>商場</t>
+    <t>商场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E8%B3%BD%E5%86%A0%E8%BB%8D%E7%9B%83</t>
   </si>
   <si>
-    <t>歐洲聯賽冠軍盃</t>
+    <t>欧洲联赛冠军杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BB%A9%E6%8E%92%E7%90%83</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E6%B5%AA%E9%A2%A8%E5%B8%86</t>
   </si>
   <si>
-    <t>滑浪風帆</t>
+    <t>滑浪风帆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%A3%E8%BE%9B%E7%B4%8D%E5%85%8B%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>帕那辛納克體育場</t>
+    <t>帕那辛纳克体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布宜諾斯艾利斯</t>
+    <t>布宜诺斯艾利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
+    <t>开普敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -917,15 +917,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>華盛頓</t>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
   </si>
   <si>
@@ -935,25 +932,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8-%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>雅典-克拉克縣</t>
+    <t>雅典-克拉克县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
+    <t>蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -971,25 +968,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%82%A3%E4%BA%9E</t>
   </si>
   <si>
-    <t>熱那亞</t>
+    <t>热那亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -1055,13 +1049,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E8%90%8A%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝爾格萊德</t>
+    <t>贝尔格莱德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
@@ -1073,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>貝魯特</t>
+    <t>贝鲁特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -1091,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5</t>
   </si>
   <si>
-    <t>聖地牙哥</t>
+    <t>圣地牙哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -1115,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%96%AF%E7%A7%91</t>
   </si>
   <si>
-    <t>庫斯科</t>
+    <t>库斯科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E6%B8%A9</t>
@@ -1133,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8D%A2%E6%97%A5-%E7%BA%B3%E6%B3%A2%E5%8D%A1</t>
@@ -1175,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94</t>
   </si>
   <si>
-    <t>基輔</t>
+    <t>基辅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%8B%89%E9%82%A3</t>
@@ -1211,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%B8%83%E7%88%BE%E9%9B%85%E9%82%A3</t>
   </si>
   <si>
-    <t>盧布爾雅那</t>
+    <t>卢布尔雅那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%93%A6%E9%82%A3</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E6%81%86</t>
   </si>
   <si>
-    <t>伯利恆</t>
+    <t>伯利恒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9B%BD</t>
@@ -1289,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%B8%81%E5%A0%A1</t>
@@ -1307,9 +1301,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF</t>
   </si>
   <si>
-    <t>波士顿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
@@ -1331,13 +1322,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9D%A6%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>馬坦薩斯</t>
+    <t>马坦萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E6%98%8E%E5%93%A5</t>
@@ -1361,9 +1352,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%A8%81%E8%90%A8</t>
   </si>
   <si>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%BE%85%E4%BB%80%E4%BF%9D%E9%99%B6%E5%85%8B</t>
   </si>
   <si>
-    <t>沙羅什保陶克</t>
+    <t>沙罗什保陶克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -1517,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/1916%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1916年夏季奧林匹克運動會</t>
+    <t>1916年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1920%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -1565,33 +1553,30 @@
     <t>https://zh.wikipedia.org/wiki/1940%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1940年夏季奧林匹克運動會</t>
+    <t>1940年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD</t>
   </si>
   <si>
-    <t>東京都</t>
+    <t>东京都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫爾辛基</t>
+    <t>赫尔辛基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1944%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>1944年夏季奧林匹克運動會</t>
+    <t>1944年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1948%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -1607,9 +1592,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫尔辛基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1956%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -1661,9 +1643,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94</t>
   </si>
   <si>
-    <t>蒙特利尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -1805,21 +1784,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%B8%83%E5%B0%94%E9%9B%85%E9%82%A3</t>
   </si>
   <si>
-    <t>卢布尔雅那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>马德里</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0</t>
   </si>
   <si>
@@ -1859,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%90%E6%B4%B2%E6%96%87%E5%8C%96%E4%B9%8B%E9%83%BD</t>
   </si>
   <si>
-    <t>Template talk-歐洲文化之都</t>
+    <t>Template talk-欧洲文化之都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E6%96%87%E5%8C%96%E4%B9%8B%E9%83%BD</t>
@@ -1889,45 +1862,33 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%89%B9%E8%A1%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>安特衛普</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%96%A9%E6%B4%9B%E5%B0%BC%E5%9F%BA</t>
   </si>
   <si>
-    <t>塞薩洛尼基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA</t>
   </si>
   <si>
-    <t>魏瑪</t>
+    <t>魏玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E7%88%BE%E6%A0%B9</t>
   </si>
   <si>
-    <t>卑爾根</t>
+    <t>卑尔根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E7%A7%91%E5%A4%AB</t>
   </si>
   <si>
@@ -1937,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E4%BA%9E%E5%93%A5-%E5%BE%B7%E5%AD%94%E6%B3%A2%E6%96%AF%E7%89%B9%E6%8B%89</t>
   </si>
   <si>
-    <t>聖地亞哥-德孔波斯特拉</t>
+    <t>圣地亚哥-德孔波斯特拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BB%B4%E5%B0%BC%E7%BF%81</t>
@@ -1973,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1</t>
   </si>
   <si>
-    <t>薩拉曼卡</t>
+    <t>萨拉曼卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E8%8C%A8</t>
@@ -1985,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>里爾</t>
+    <t>里尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%85%8B_(%E7%88%B1%E5%B0%94%E5%85%B0)</t>
@@ -1997,13 +1958,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%80</t>
   </si>
   <si>
-    <t>大區</t>
+    <t>大区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E6%AF%94%E7%83%8F</t>
   </si>
   <si>
-    <t>錫比烏</t>
+    <t>锡比乌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%89%A9%E6%B5%A6</t>
@@ -2021,15 +1982,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%8C%B2</t>
   </si>
   <si>
-    <t>林茲</t>
+    <t>林兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E7%B4%90%E6%96%AF</t>
   </si>
   <si>
-    <t>維爾紐斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%A3%AE</t>
   </si>
   <si>
@@ -2045,19 +2003,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E5%BA%AB</t>
   </si>
   <si>
-    <t>圖爾庫</t>
+    <t>图尔库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%8D%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>馬里博爾</t>
+    <t>马里博尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%A6%AC%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>基馬拉斯</t>
+    <t>基马拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B8%8C%E7%AD%96</t>
@@ -2069,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B3%BD</t>
   </si>
   <si>
-    <t>馬賽</t>
+    <t>马赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8E%E9%BB%98%E5%A5%A5</t>
@@ -2171,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%AD%8C%E5%94%B1%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲歌唱大賽</t>
+    <t>欧洲歌唱大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8A%A0%E8%AF%BA</t>
@@ -2189,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%88%BE%E5%BC%97%E7%91%9F%E5%A7%86</t>
   </si>
   <si>
-    <t>希爾弗瑟姆</t>
+    <t>希尔弗瑟姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%9B%E7%BA%B3</t>
@@ -2201,9 +2159,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>卢森堡市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
@@ -2243,9 +2198,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E5%B0%94%E6%A0%B9</t>
   </si>
   <si>
-    <t>卑尔根</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%A0%BC%E5%8B%92%E5%B8%83</t>
   </si>
   <si>
@@ -2261,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%A8%E5%9D%8A%E8%A1%97%E9%8E%AE</t>
   </si>
   <si>
-    <t>磨坊街鎮</t>
+    <t>磨坊街镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E9%99%86</t>
@@ -2285,19 +2237,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85</t>
   </si>
   <si>
-    <t>基辅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E6%A0%BC%E8%8E%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>贝尔格莱德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%AD%AF%E5%A7%86</t>
   </si>
   <si>
-    <t>貝魯姆</t>
+    <t>贝鲁姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E5%B0%94%E5%A4%9A%E5%A4%AB</t>
@@ -2315,9 +2261,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
@@ -2393,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -2441,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -2465,15 +2408,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
   </si>
   <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
+    <t>加泰隆尼亚共和国 (2017年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -2483,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2495,9 +2435,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
   </si>
   <si>
@@ -2543,7 +2480,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -2561,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2579,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E6%99%AE%E9%87%8C</t>
@@ -2603,19 +2540,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%96%E6%9B%B8%E4%B9%8B%E9%83%BD</t>
   </si>
   <si>
-    <t>世界圖書之都</t>
+    <t>世界图书之都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
   </si>
   <si>
-    <t>亞歷山大港</t>
+    <t>亚历山大港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%87%8C</t>
@@ -2627,13 +2561,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%9D%88</t>
   </si>
   <si>
-    <t>都靈</t>
+    <t>都灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -2651,19 +2585,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%BB%A3%E5%9F%9F%E5%B8%82</t>
   </si>
   <si>
-    <t>仁川廣域市</t>
+    <t>仁川广域市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%8D%E5%85%8B%E9%87%8C</t>
   </si>
   <si>
-    <t>科納克里</t>
+    <t>科纳克里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2693,7 +2627,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -7675,7 +7609,7 @@
         <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7701,10 +7635,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>302</v>
+      </c>
+      <c r="F161" t="s">
         <v>303</v>
-      </c>
-      <c r="F161" t="s">
-        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7730,10 +7664,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>304</v>
+      </c>
+      <c r="F162" t="s">
         <v>305</v>
-      </c>
-      <c r="F162" t="s">
-        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7759,10 +7693,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>306</v>
+      </c>
+      <c r="F163" t="s">
         <v>307</v>
-      </c>
-      <c r="F163" t="s">
-        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7788,10 +7722,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" t="s">
         <v>309</v>
-      </c>
-      <c r="F164" t="s">
-        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7817,10 +7751,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>310</v>
+      </c>
+      <c r="F165" t="s">
         <v>311</v>
-      </c>
-      <c r="F165" t="s">
-        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7846,10 +7780,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>312</v>
+      </c>
+      <c r="F166" t="s">
         <v>313</v>
-      </c>
-      <c r="F166" t="s">
-        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7875,10 +7809,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>314</v>
+      </c>
+      <c r="F167" t="s">
         <v>315</v>
-      </c>
-      <c r="F167" t="s">
-        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>8</v>
@@ -7904,10 +7838,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7933,10 +7867,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7962,10 +7896,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7991,10 +7925,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8020,10 +7954,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8049,10 +7983,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8078,10 +8012,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -8107,10 +8041,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8136,10 +8070,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -8165,10 +8099,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8194,10 +8128,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -8223,10 +8157,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8252,10 +8186,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8281,10 +8215,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8310,10 +8244,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8339,10 +8273,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8368,10 +8302,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8397,10 +8331,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8426,10 +8360,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8455,10 +8389,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8484,10 +8418,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8513,10 +8447,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8542,10 +8476,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8571,10 +8505,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8600,10 +8534,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8629,10 +8563,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8658,10 +8592,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8687,10 +8621,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8716,10 +8650,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8745,10 +8679,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8774,10 +8708,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8803,10 +8737,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8832,10 +8766,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8861,10 +8795,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8890,10 +8824,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8919,10 +8853,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8948,10 +8882,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8977,10 +8911,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -9006,10 +8940,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9035,10 +8969,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9064,10 +8998,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9093,10 +9027,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9122,10 +9056,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9151,10 +9085,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9180,10 +9114,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9209,10 +9143,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9238,10 +9172,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9267,10 +9201,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9296,10 +9230,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9325,10 +9259,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9354,10 +9288,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9383,10 +9317,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9412,10 +9346,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9441,10 +9375,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9470,10 +9404,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9499,10 +9433,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9528,10 +9462,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>307</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9557,10 +9491,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -9586,10 +9520,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>15</v>
@@ -9615,10 +9549,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9644,10 +9578,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9673,10 +9607,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9702,10 +9636,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9731,10 +9665,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9760,10 +9694,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9789,10 +9723,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9818,10 +9752,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9847,10 +9781,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9876,10 +9810,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9905,10 +9839,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9934,10 +9868,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9963,10 +9897,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -9992,10 +9926,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10021,10 +9955,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10050,10 +9984,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10079,10 +10013,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10108,10 +10042,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10137,10 +10071,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10166,10 +10100,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10195,10 +10129,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10224,10 +10158,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10253,10 +10187,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10282,10 +10216,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10311,10 +10245,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>22</v>
@@ -10340,10 +10274,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>6</v>
@@ -10369,10 +10303,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10427,10 +10361,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10456,10 +10390,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10485,10 +10419,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10514,10 +10448,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>9</v>
@@ -10543,10 +10477,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10572,10 +10506,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10601,10 +10535,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -10630,10 +10564,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10659,10 +10593,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10688,10 +10622,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10717,10 +10651,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>6</v>
@@ -10746,10 +10680,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10775,10 +10709,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10804,10 +10738,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10833,10 +10767,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10862,10 +10796,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10891,10 +10825,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10920,10 +10854,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10949,10 +10883,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10978,10 +10912,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11007,10 +10941,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -11036,10 +10970,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11065,10 +10999,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11094,10 +11028,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11123,10 +11057,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11152,10 +11086,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F280" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11181,10 +11115,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11210,10 +11144,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11239,10 +11173,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11268,10 +11202,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11297,10 +11231,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>311</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11326,10 +11260,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11355,10 +11289,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11384,10 +11318,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11413,10 +11347,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11442,10 +11376,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11471,10 +11405,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11529,10 +11463,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11587,10 +11521,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11645,10 +11579,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11674,10 +11608,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11703,10 +11637,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11732,10 +11666,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11761,10 +11695,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11790,10 +11724,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11819,10 +11753,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11848,10 +11782,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F304" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11877,10 +11811,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F305" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11935,10 +11869,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11964,10 +11898,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11993,10 +11927,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12022,10 +11956,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>6</v>
@@ -12051,10 +11985,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>9</v>
@@ -12080,10 +12014,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F312" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -12109,10 +12043,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>596</v>
+        <v>396</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12138,10 +12072,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F314" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G314" t="n">
         <v>4</v>
@@ -12167,10 +12101,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F315" t="s">
-        <v>600</v>
+        <v>322</v>
       </c>
       <c r="G315" t="n">
         <v>3</v>
@@ -12196,10 +12130,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F316" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12225,10 +12159,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G317" t="n">
         <v>4</v>
@@ -12254,10 +12188,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12283,10 +12217,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -12312,10 +12246,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -12341,10 +12275,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -12370,10 +12304,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12399,10 +12333,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>8</v>
@@ -12428,10 +12362,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12457,10 +12391,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12486,10 +12420,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G326" t="n">
         <v>31</v>
@@ -12515,10 +12449,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12544,10 +12478,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12573,10 +12507,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>258</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12602,10 +12536,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12631,10 +12565,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12660,10 +12594,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12689,10 +12623,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12718,10 +12652,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12747,10 +12681,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12776,10 +12710,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12805,10 +12739,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12834,10 +12768,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12863,10 +12797,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12892,10 +12826,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12921,10 +12855,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12950,10 +12884,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12979,10 +12913,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13008,10 +12942,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13037,10 +12971,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13066,10 +13000,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13095,10 +13029,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13124,10 +13058,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13153,10 +13087,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13182,10 +13116,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13211,10 +13145,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13240,10 +13174,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13269,10 +13203,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13298,10 +13232,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13327,10 +13261,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13356,10 +13290,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13385,10 +13319,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13414,10 +13348,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13443,10 +13377,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13472,10 +13406,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13501,10 +13435,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13530,10 +13464,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13559,10 +13493,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13588,10 +13522,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13617,10 +13551,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13646,10 +13580,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13675,10 +13609,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13704,10 +13638,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13733,10 +13667,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13762,10 +13696,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13791,10 +13725,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13820,10 +13754,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13849,10 +13783,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13878,10 +13812,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13907,10 +13841,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13936,10 +13870,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13965,10 +13899,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F377" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13994,10 +13928,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F378" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14023,10 +13957,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F379" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14052,10 +13986,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>728</v>
+        <v>590</v>
       </c>
       <c r="G380" t="n">
         <v>4</v>
@@ -14081,10 +14015,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F381" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14110,10 +14044,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F382" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14139,10 +14073,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F383" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14168,10 +14102,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F384" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14197,10 +14131,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F385" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14226,10 +14160,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F386" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14255,10 +14189,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F387" t="s">
-        <v>742</v>
+        <v>622</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14284,10 +14218,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14313,10 +14247,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14342,10 +14276,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14371,10 +14305,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F391" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14400,10 +14334,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F392" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14429,10 +14363,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F393" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14458,10 +14392,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>756</v>
+        <v>386</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14487,10 +14421,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F395" t="s">
-        <v>758</v>
+        <v>344</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14516,10 +14450,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14545,10 +14479,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="F397" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14574,10 +14508,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="F398" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14603,10 +14537,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="F399" t="s">
-        <v>766</v>
+        <v>601</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14632,10 +14566,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="F400" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14661,10 +14595,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="F401" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14690,10 +14624,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="F402" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14719,10 +14653,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14748,10 +14682,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14777,10 +14711,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14806,10 +14740,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="G406" t="n">
         <v>5</v>
@@ -14835,10 +14769,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14864,10 +14798,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14893,10 +14827,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14922,10 +14856,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14951,10 +14885,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="F411" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14980,10 +14914,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F412" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15009,10 +14943,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="F413" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15038,10 +14972,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="F414" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15067,10 +15001,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="F415" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15096,10 +15030,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="F416" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15125,10 +15059,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F417" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15154,10 +15088,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="F418" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15183,10 +15117,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F419" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15212,10 +15146,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F420" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15241,10 +15175,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F421" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15270,10 +15204,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F422" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15299,10 +15233,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="F423" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15328,10 +15262,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="F424" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15357,10 +15291,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="F425" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15386,10 +15320,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15415,10 +15349,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>384</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15444,10 +15378,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15473,10 +15407,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15502,10 +15436,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="F430" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15531,10 +15465,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="F431" t="s">
-        <v>826</v>
+        <v>388</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15560,10 +15494,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="F432" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15589,10 +15523,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="F433" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15618,10 +15552,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="F434" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15647,10 +15581,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="F435" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15676,10 +15610,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="F436" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15705,10 +15639,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="F437" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15734,10 +15668,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="F438" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15763,10 +15697,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F439" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15792,10 +15726,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="F440" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15821,10 +15755,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="F441" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15850,10 +15784,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="F442" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15879,10 +15813,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="F443" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15908,10 +15842,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="F444" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15937,10 +15871,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="F445" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15966,10 +15900,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="F446" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15995,10 +15929,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="F447" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16024,10 +15958,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F448" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="G448" t="n">
         <v>3</v>
@@ -16053,10 +15987,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="F449" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16082,10 +16016,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="F450" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16111,10 +16045,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="F451" t="s">
-        <v>862</v>
+        <v>334</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16140,10 +16074,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="F452" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16169,10 +16103,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="F453" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16198,10 +16132,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="F454" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16227,10 +16161,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="F455" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16256,10 +16190,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="F456" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16285,10 +16219,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="F457" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16314,10 +16248,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="F458" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16343,10 +16277,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F459" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16372,10 +16306,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="F460" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16401,10 +16335,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="F461" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -16430,10 +16364,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="F462" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16459,10 +16393,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="F463" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16488,10 +16422,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="F464" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16517,10 +16451,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="F465" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16546,10 +16480,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="F466" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>

--- a/xlsx/雅典_intext.xlsx
+++ b/xlsx/雅典_intext.xlsx
@@ -29,7 +29,7 @@
     <t>雅典 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治_雅典</t>
+    <t>体育运动_体育运动_奥林匹克运动会_雅典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%8D%AB%E5%9F%8E</t>
@@ -3270,7 +3270,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -10897,7 +10897,7 @@
         <v>522</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11767,7 +11767,7 @@
         <v>574</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
